--- a/Fase 2/Evidencias Proyecto/Sprints/Burdown Chart/Burndown Chart – Sprint 4 (8–13 Septiembre).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Burdown Chart/Burndown Chart – Sprint 4 (8–13 Septiembre).xlsx
@@ -337,11 +337,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1713031634"/>
-        <c:axId val="139241929"/>
+        <c:axId val="643672594"/>
+        <c:axId val="1997183001"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1713031634"/>
+        <c:axId val="643672594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,10 +393,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139241929"/>
+        <c:crossAx val="1997183001"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139241929"/>
+        <c:axId val="1997183001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,7 +471,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1713031634"/>
+        <c:crossAx val="643672594"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -753,7 +753,7 @@
     <col customWidth="1" min="11" max="11" width="41.75"/>
   </cols>
   <sheetData>
-    <row r="6">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -794,7 +794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
@@ -815,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
@@ -836,7 +836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
@@ -857,7 +857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
@@ -878,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
